--- a/吳信霆_碩論區/圖片備份區_JPG版/第三章_給行為紀錄截圖/單元一行為紀錄.xlsx
+++ b/吳信霆_碩論區/圖片備份區_JPG版/第三章_給行為紀錄截圖/單元一行為紀錄.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\113碩二下\MasterPaperFile\吳信霆_碩論區\圖片備份區\第三章_給行為紀錄截圖\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\113碩二下\MasterPaperFile_Represention\吳信霆_碩論區\圖片備份區_JPG版\第三章_給行為紀錄截圖\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="721">
   <si>
     <t>Name</t>
   </si>
@@ -1470,9 +1470,6 @@
     <t xml:space="preserve"> 2024/6/3 下午 02:26:07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 為什麼你認為在進行遊戲時找到甘蔗具有重要性呢？它在遊戲中扮演了什麼角色？</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2024/6/3 下午 02:26:24</t>
   </si>
   <si>
@@ -1485,529 +1482,700 @@
     <t xml:space="preserve"> 2024/6/3 下午 02:28:49</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:30:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:30:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:31:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:33:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:33:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:33:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:33:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:33:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:33:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:34:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:34:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:34:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:35:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:35:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:35:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:36:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:36:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 當我們考慮甘蔗對荷蘭人的意義時，我們應該如何探討它在經濟、文化或歷史上的角色？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:37:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:37:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:38:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:38:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:39:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:41:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:42:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:42:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:42:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:44:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:45:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:45:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你認為將甘蔗交給荷蘭人會產生什麼樣的結果？這個行動對於你、荷蘭人以及涉及的社會有何種意義和後果？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:46:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:46:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:47:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:47:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為什麼你會關注他們是否看起來像漢人？這種外貌上的差異對於理解他們的歷史和文化有何種意義？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:47:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:48:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:48:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:48:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:48:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:49:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:49:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:49:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:50:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:51:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:52:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:52:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:53:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:54:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你為何認為他可能是一個官員？官員的身份或職位在了解他的生平和貢獻上有何重要性？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:54:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:54:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:56:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:56:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為什麼你認為通過衣服可以找到他？衣服在識別一個人的身份或歷史背景中扮演了什麼角色？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:56:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:56:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:58:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 02:59:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:00:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:00:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:00:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:00:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:00:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 撿取郭懷一人偶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:03:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:04:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:06:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:06:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:06:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:06:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:07:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:07:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你提到「因為漢人」，可以具體說明是什麼關於漢人讓你產生這樣的疑問或假設嗎？這與荷蘭人長官有何聯繫？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:08:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:08:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:09:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:09:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:14:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:14:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:15:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:15:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:16:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:17:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:17:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:18:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:18:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:18:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:18:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:18:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:18:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:21:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:27:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:27:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:27:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:27:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:28:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:30:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:30:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:31:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:31:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:32:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:33:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:33:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:33:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:33:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:33:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:34:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:36:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/3 下午 03:37:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024/6/4 上午 12:40:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你在說「甘蔗對荷蘭人」時，具體是指哪種行為或事件？這種行為對荷蘭人本身意味著什麼？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你能描述一下「甘蔗」具體是指哪方面的事情嗎？它為何對荷蘭人來說具有特別的意義或重要性？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 當你問荷蘭人「都在哪裡」時，你具體想了解他們在哪個時間點或地理位置上的分布嗎？這個問題對你有何種探索意義？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 當我們觀察到他們的服裝與其他人群不同時，這能告訴我們什麼關於他們文化或身份的訊息？這種差異有何意義？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你認為郭懷一擁有文件的原因是什麼？這些文件對於理解他的生平和時代背景有何種重要性？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你想透過什麼方式找到他？在尋找過程中，你期望了解到關於他的哪些類型的訊息？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為什麼你想將文件交給荷蘭人長官？通過這個行動，你期望達成什麼目的或結果？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為什麼你認為被荷蘭人欺負是影響這一行為的原因？這種情況如何反映了當時的社會和政治關係？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為何服裝的差異對我們瞭解一個人或一群人來說重要？這種不同可能揭示了哪些社會或文化上的訊息？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生的問題:嗨</t>
+  </si>
+  <si>
+    <t>學生的問題:哈囉</t>
+  </si>
+  <si>
+    <t>學生的問題:唉唷喂</t>
+  </si>
+  <si>
+    <t>學生的問題:請問郭懷意是誰?。請模仿蘇格拉底的質問引導學生的問題</t>
+  </si>
+  <si>
+    <t>學生的問題:因為漢人都被荷蘭人欺負</t>
+  </si>
+  <si>
+    <t>學生的問題:郭懷意是誰</t>
+  </si>
+  <si>
+    <t>你好.</t>
+  </si>
+  <si>
+    <t>學生的問題:你是中和型 AI 小助手嗎?</t>
+  </si>
+  <si>
+    <t>你好嗎?</t>
+  </si>
+  <si>
+    <t>學生的問題:愛你喔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 又會</t>
+  </si>
+  <si>
+    <t>學生的問題:請問郭華意是誰?</t>
+  </si>
+  <si>
+    <t>學生的問題:請問國華一是誰?</t>
+  </si>
+  <si>
+    <t>學生的問題:請問郭懷鈺是誰</t>
+  </si>
+  <si>
+    <t>學生的問題:請問社團在哪裡?</t>
+  </si>
+  <si>
+    <t>學生的問題:請問這堂在哪裡?</t>
+  </si>
+  <si>
+    <t>學生的問題:我說的是甘蔗的蔗糖</t>
+  </si>
+  <si>
+    <t>學生的問題:我好奇它的歷史產地</t>
+  </si>
+  <si>
+    <t>學生的問題:跟這個船到哪裡去了</t>
+  </si>
+  <si>
+    <t>學生的問題:面. 郭懷意為什麼要打荷蘭人?</t>
+  </si>
+  <si>
+    <t>學生的問題:為什麼荷蘭人要課稅?</t>
+  </si>
+  <si>
+    <t>學生的問題:是不是因為它很窮?</t>
+  </si>
+  <si>
+    <t>學生的問題:甘蔗對荷蘭人有什麼意義?</t>
+  </si>
+  <si>
+    <t>學生的問題:甘蔗對荷蘭人有什麼意義嗎?</t>
+  </si>
+  <si>
+    <t>學生的問題:我要把甘蔗拿給荷蘭人</t>
+  </si>
+  <si>
+    <t>學生的問題:荷蘭人都在哪裡</t>
+  </si>
+  <si>
+    <t>學生的問題:他們看起來是不是不像漢人?</t>
+  </si>
+  <si>
+    <t>學生的問題:所以他們衣服也穿不一樣囉</t>
+  </si>
+  <si>
+    <t>學生的問題:郭懷一為什麼會有文件?</t>
+  </si>
+  <si>
+    <t>學生的問題:他是不是也是一個長長官?</t>
+  </si>
+  <si>
+    <t>學生的問題:那我要怎麼找他?</t>
+  </si>
+  <si>
+    <t>學生的問題:是不是一樣看衣服來找?</t>
+  </si>
+  <si>
+    <t>學生的問題:我要怎麼把文件拿給荷蘭人長官</t>
+  </si>
+  <si>
+    <t>學生的問題:是不是因為漢人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 所以</t>
+  </si>
+  <si>
+    <t>學生的問題:那荷蘭人長官是不是</t>
+  </si>
+  <si>
+    <t>學生的問題:衣服也不一樣</t>
+  </si>
+  <si>
+    <t>學生的問題:竹簡在哪裡?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為什麼你認為在進行遊戲時找到竹簡具有重要性呢？它在遊戲中扮演了什麼角色？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生的問題:進遊戲為什麼要找竹簡?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 為什麼你認為在遊戲中尋找竹簡特別重要？竹簡在遊戲的故事或機制中有何獨特之處？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生的問題:他會介紹什麼東西嗎</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 當你提到「他」時，你預期他介紹的是哪方面的東西？這種介紹對你或其他人有何種意義？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:30:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:30:34</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生的問題:是不是因為現在在上歷史課?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 你認為上歷史課與提出這個問題之間存在什麼樣的關聯？這種關聯對於我們理解歷史有何種影響？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:31:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:33:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:33:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:33:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:33:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:33:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:33:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:34:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:34:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:34:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:35:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:35:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:35:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:36:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:36:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 當我們考慮甘蔗對荷蘭人的意義時，我們應該如何探討它在經濟、文化或歷史上的角色？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:37:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:37:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 為什麼你認為甘蔗可以賺錢？這背後的經濟活動或市場需求對社會和歷史有何影響？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:38:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:38:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 你能探討一下，是什麼因素使得荷蘭人對甘蔗產生市場需求？這需求如何影響荷蘭及其殖民地的歷史發展？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:39:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:41:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:42:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:42:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:42:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:44:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:45:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:45:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 你認為將甘蔗交給荷蘭人會產生什麼樣的結果？這個行動對於你、荷蘭人以及涉及的社會有何種意義和後果？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:46:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:46:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:47:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:47:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 為什麼你會關注他們是否看起來像漢人？這種外貌上的差異對於理解他們的歷史和文化有何種意義？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:47:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:48:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:48:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:48:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:48:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:49:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:49:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:49:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:50:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:51:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:52:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:52:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:53:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:54:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 你為何認為他可能是一個官員？官員的身份或職位在了解他的生平和貢獻上有何重要性？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:54:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:54:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:56:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:56:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 為什麼你認為通過衣服可以找到他？衣服在識別一個人的身份或歷史背景中扮演了什麼角色？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:56:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:56:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:58:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 02:59:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:00:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:00:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:00:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:00:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:00:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 撿取郭懷一人偶</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:03:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:04:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:06:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:06:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:06:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:06:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:07:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:07:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 你提到「因為漢人」，可以具體說明是什麼關於漢人讓你產生這樣的疑問或假設嗎？這與荷蘭人長官有何聯繫？</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:08:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:08:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:09:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:09:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:14:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:14:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:15:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:15:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:16:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:17:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:17:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:18:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:18:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:18:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:18:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:18:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:18:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:21:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:27:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:27:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:27:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:27:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:28:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:30:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:30:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:31:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:31:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:32:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:33:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:33:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:33:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:33:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:33:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:34:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:36:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/3 下午 03:37:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024/6/4 上午 12:40:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 為什麼你認為在遊戲中尋找豬姐特別重要？竹簡在遊戲的故事或機制中有何獨特之處？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成功完成，1.認識抗荷的背景(前往竹簡)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生的問題:甘蔗對荷蘭人有什麼意義</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2015,172 +2183,32 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 你在說「甘蔗對荷蘭人」時，具體是指哪種行為或事件？這種行為對荷蘭人本身意味著什麼？</t>
+    <t>學生的問題:甘蔗對荷蘭人有什麼意義?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 你能描述一下「甘蔗」具體是指哪方面的事情嗎？它為何對荷蘭人來說具有特別的意義或重要性？</t>
+    <t>學生的問題:是不是因為甘蔗可以賺錢?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 當你問荷蘭人「都在哪裡」時，你具體想了解他們在哪個時間點或地理位置上的分布嗎？這個問題對你有何種探索意義？</t>
+    <t xml:space="preserve"> 為什麼你認為甘蔗可以賺錢？這背後的經濟活動或市場需求對社會和歷史有何影響？</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 當我們觀察到他們的服裝與其他人群不同時，這能告訴我們什麼關於他們文化或身份的訊息？這種差異有何意義？</t>
+    <t>學生的問題:所以荷蘭人有甘蔗的市場需求</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 你認為郭懷一擁有文件的原因是什麼？這些文件對於理解他的生平和時代背景有何種重要性？</t>
+    <t xml:space="preserve"> 你能探討一下，是什麼因素使得荷蘭人對甘蔗產生市場需求？這需求如何影響荷蘭及其殖民地的歷史發展？</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 你想透過什麼方式找到他？在尋找過程中，你期望了解到關於他的哪些類型的訊息？</t>
+    <t xml:space="preserve"> 成功完成，2.了解荷蘭開墾台灣的規劃(尋找甘蔗)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 為什麼你想將文件交給荷蘭人長官？通過這個行動，你期望達成什麼目的或結果？</t>
+    <t xml:space="preserve"> 播放語音</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 為什麼你認為被荷蘭人欺負是影響這一行為的原因？這種情況如何反映了當時的社會和政治關係？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 為何服裝的差異對我們瞭解一個人或一群人來說重要？這種不同可能揭示了哪些社會或文化上的訊息？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生的問題:嗨</t>
-  </si>
-  <si>
-    <t>學生的問題:哈囉</t>
-  </si>
-  <si>
-    <t>學生的問題:唉唷喂</t>
-  </si>
-  <si>
-    <t>學生的問題:請問郭懷意是誰?。請模仿蘇格拉底的質問引導學生的問題</t>
-  </si>
-  <si>
-    <t>學生的問題:因為漢人都被荷蘭人欺負</t>
-  </si>
-  <si>
-    <t>學生的問題:郭懷意是誰</t>
-  </si>
-  <si>
-    <t>你好.</t>
-  </si>
-  <si>
-    <t>學生的問題:你是中和型 AI 小助手嗎?</t>
-  </si>
-  <si>
-    <t>你好嗎?</t>
-  </si>
-  <si>
-    <t>學生的問題:愛你喔</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 又會</t>
-  </si>
-  <si>
-    <t>學生的問題:請問郭華意是誰?</t>
-  </si>
-  <si>
-    <t>學生的問題:請問國華一是誰?</t>
-  </si>
-  <si>
-    <t>學生的問題:請問郭懷鈺是誰</t>
-  </si>
-  <si>
-    <t>學生的問題:請問社團在哪裡?</t>
-  </si>
-  <si>
-    <t>學生的問題:請問這堂在哪裡?</t>
-  </si>
-  <si>
-    <t>學生的問題:我說的是甘蔗的蔗糖</t>
-  </si>
-  <si>
-    <t>學生的問題:我好奇它的歷史產地</t>
-  </si>
-  <si>
-    <t>學生的問題:跟這個船到哪裡去了</t>
-  </si>
-  <si>
-    <t>學生的問題:面. 郭懷意為什麼要打荷蘭人?</t>
-  </si>
-  <si>
-    <t>學生的問題:為什麼荷蘭人要課稅?</t>
-  </si>
-  <si>
-    <t>學生的問題:是不是因為它很窮?</t>
-  </si>
-  <si>
-    <t>學生的問題:進遊戲為什麼要找甘蔗?</t>
-  </si>
-  <si>
-    <t>學生的問題:進遊戲為什麼要找竹簡?</t>
-  </si>
-  <si>
-    <t>學生的問題:他會介紹什麼東西嗎</t>
-  </si>
-  <si>
-    <t>學生的問題:是不是因為現在在上歷史課?</t>
-  </si>
-  <si>
-    <t>學生的問題:甘蔗對荷蘭人有什麼意義</t>
-  </si>
-  <si>
-    <t>學生的問題:甘蔗對荷蘭人有什麼意義?</t>
-  </si>
-  <si>
-    <t>學生的問題:甘蔗對荷蘭人有什麼意義嗎?</t>
-  </si>
-  <si>
-    <t>學生的問題:是不是因為甘蔗可以賺錢?</t>
-  </si>
-  <si>
-    <t>學生的問題:所以荷蘭人有甘蔗的市場需求</t>
-  </si>
-  <si>
-    <t>學生的問題:我要把甘蔗拿給荷蘭人</t>
-  </si>
-  <si>
-    <t>學生的問題:荷蘭人都在哪裡</t>
-  </si>
-  <si>
-    <t>學生的問題:他們看起來是不是不像漢人?</t>
-  </si>
-  <si>
-    <t>學生的問題:所以他們衣服也穿不一樣囉</t>
-  </si>
-  <si>
-    <t>學生的問題:郭懷一為什麼會有文件?</t>
-  </si>
-  <si>
-    <t>學生的問題:他是不是也是一個長長官?</t>
-  </si>
-  <si>
-    <t>學生的問題:那我要怎麼找他?</t>
-  </si>
-  <si>
-    <t>學生的問題:是不是一樣看衣服來找?</t>
-  </si>
-  <si>
-    <t>學生的問題:我要怎麼把文件拿給荷蘭人長官</t>
-  </si>
-  <si>
-    <t>學生的問題:是不是因為漢人</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 所以</t>
-  </si>
-  <si>
-    <t>學生的問題:那荷蘭人長官是不是</t>
-  </si>
-  <si>
-    <t>學生的問題:衣服也不一樣</t>
   </si>
 </sst>
 </file>
@@ -3100,13 +3128,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A635" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F656" sqref="F656"/>
+    <sheetView tabSelected="1" topLeftCell="A531" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H514" sqref="H514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3236,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F9" t="s">
         <v>444</v>
@@ -4309,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4550,10 +4578,10 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F99" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -5709,10 +5737,10 @@
         <v>7</v>
       </c>
       <c r="E176" t="s">
+        <v>667</v>
+      </c>
+      <c r="F176" t="s">
         <v>674</v>
-      </c>
-      <c r="F176" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
@@ -6664,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6678,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F245" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6709,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6823,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6899,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6961,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6989,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7017,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7045,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7073,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -7183,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -9710,7 +9738,7 @@
         <v>3</v>
       </c>
       <c r="E447" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F447" t="s">
         <v>444</v>
@@ -9951,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="E461" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -10121,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -10155,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="E473" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -10291,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="E481" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -10308,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="s">
-        <v>483</v>
+        <v>704</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -10316,7 +10344,7 @@
         <v>376</v>
       </c>
       <c r="B483" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C483" t="s">
         <v>7</v>
@@ -10325,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="E483" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -10333,7 +10361,7 @@
         <v>376</v>
       </c>
       <c r="B484" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C484" t="s">
         <v>7</v>
@@ -10342,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -10350,7 +10378,7 @@
         <v>376</v>
       </c>
       <c r="B485" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C485" t="s">
         <v>7</v>
@@ -10359,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="E485" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10367,7 +10395,7 @@
         <v>376</v>
       </c>
       <c r="B486" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C486" t="s">
         <v>7</v>
@@ -10376,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="s">
-        <v>488</v>
+        <v>708</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10384,7 +10412,7 @@
         <v>376</v>
       </c>
       <c r="B487" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C487" t="s">
         <v>7</v>
@@ -10393,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="E487" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -10401,7 +10429,7 @@
         <v>376</v>
       </c>
       <c r="B488" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C488" t="s">
         <v>7</v>
@@ -10410,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="s">
-        <v>491</v>
+        <v>710</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -10418,7 +10446,7 @@
         <v>376</v>
       </c>
       <c r="B489" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C489" t="s">
         <v>178</v>
@@ -10435,7 +10463,7 @@
         <v>376</v>
       </c>
       <c r="B490" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C490" t="s">
         <v>18</v>
@@ -10452,7 +10480,7 @@
         <v>376</v>
       </c>
       <c r="B491" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C491" t="s">
         <v>18</v>
@@ -10469,7 +10497,7 @@
         <v>376</v>
       </c>
       <c r="B492" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C492" t="s">
         <v>178</v>
@@ -10486,10 +10514,10 @@
         <v>376</v>
       </c>
       <c r="B493" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C493" t="s">
-        <v>161</v>
+        <v>711</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -10503,7 +10531,7 @@
         <v>376</v>
       </c>
       <c r="B494" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C494" t="s">
         <v>178</v>
@@ -10520,7 +10548,7 @@
         <v>376</v>
       </c>
       <c r="B495" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C495" t="s">
         <v>178</v>
@@ -10537,7 +10565,7 @@
         <v>376</v>
       </c>
       <c r="B496" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C496" t="s">
         <v>18</v>
@@ -10554,7 +10582,7 @@
         <v>376</v>
       </c>
       <c r="B497" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C497" t="s">
         <v>18</v>
@@ -10571,7 +10599,7 @@
         <v>376</v>
       </c>
       <c r="B498" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C498" t="s">
         <v>178</v>
@@ -10588,7 +10616,7 @@
         <v>376</v>
       </c>
       <c r="B499" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C499" t="s">
         <v>161</v>
@@ -10605,7 +10633,7 @@
         <v>376</v>
       </c>
       <c r="B500" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C500" t="s">
         <v>7</v>
@@ -10614,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -10622,7 +10650,7 @@
         <v>376</v>
       </c>
       <c r="B501" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C501" t="s">
         <v>7</v>
@@ -10631,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="E501" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -10639,7 +10667,7 @@
         <v>376</v>
       </c>
       <c r="B502" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C502" t="s">
         <v>7</v>
@@ -10648,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10656,7 +10684,7 @@
         <v>376</v>
       </c>
       <c r="B503" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C503" t="s">
         <v>7</v>
@@ -10665,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="E503" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -10673,7 +10701,7 @@
         <v>376</v>
       </c>
       <c r="B504" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C504" t="s">
         <v>7</v>
@@ -10682,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10690,7 +10718,7 @@
         <v>376</v>
       </c>
       <c r="B505" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C505" t="s">
         <v>7</v>
@@ -10699,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="E505" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -10707,7 +10735,7 @@
         <v>376</v>
       </c>
       <c r="B506" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C506" t="s">
         <v>7</v>
@@ -10716,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -10724,7 +10752,7 @@
         <v>376</v>
       </c>
       <c r="B507" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C507" t="s">
         <v>7</v>
@@ -10733,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="E507" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10741,7 +10769,7 @@
         <v>376</v>
       </c>
       <c r="B508" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C508" t="s">
         <v>7</v>
@@ -10750,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -10758,7 +10786,7 @@
         <v>376</v>
       </c>
       <c r="B509" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C509" t="s">
         <v>7</v>
@@ -10767,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="E509" t="s">
-        <v>510</v>
+        <v>716</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10775,7 +10803,7 @@
         <v>376</v>
       </c>
       <c r="B510" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C510" t="s">
         <v>7</v>
@@ -10784,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -10792,7 +10820,7 @@
         <v>376</v>
       </c>
       <c r="B511" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C511" t="s">
         <v>7</v>
@@ -10801,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="E511" t="s">
-        <v>513</v>
+        <v>718</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -10809,10 +10837,10 @@
         <v>376</v>
       </c>
       <c r="B512" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C512" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -10826,13 +10854,13 @@
         <v>376</v>
       </c>
       <c r="B513" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C513" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E513" t="s">
         <v>7</v>
@@ -10843,13 +10871,13 @@
         <v>376</v>
       </c>
       <c r="B514" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C514" t="s">
-        <v>167</v>
+        <v>720</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514" t="s">
         <v>7</v>
@@ -10860,13 +10888,13 @@
         <v>376</v>
       </c>
       <c r="B515" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C515" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515" t="s">
         <v>7</v>
@@ -10877,13 +10905,13 @@
         <v>376</v>
       </c>
       <c r="B516" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C516" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E516" t="s">
         <v>7</v>
@@ -10894,13 +10922,13 @@
         <v>376</v>
       </c>
       <c r="B517" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C517" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E517" t="s">
         <v>7</v>
@@ -10911,10 +10939,10 @@
         <v>376</v>
       </c>
       <c r="B518" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C518" t="s">
-        <v>25</v>
+        <v>719</v>
       </c>
       <c r="D518">
         <v>1</v>
@@ -10928,13 +10956,13 @@
         <v>376</v>
       </c>
       <c r="B519" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C519" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="D519">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E519" t="s">
         <v>7</v>
@@ -10945,7 +10973,7 @@
         <v>376</v>
       </c>
       <c r="B520" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C520" t="s">
         <v>25</v>
@@ -10962,7 +10990,7 @@
         <v>376</v>
       </c>
       <c r="B521" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C521" t="s">
         <v>69</v>
@@ -10979,7 +11007,7 @@
         <v>376</v>
       </c>
       <c r="B522" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C522" t="s">
         <v>213</v>
@@ -10996,7 +11024,7 @@
         <v>376</v>
       </c>
       <c r="B523" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C523" t="s">
         <v>25</v>
@@ -11013,7 +11041,7 @@
         <v>376</v>
       </c>
       <c r="B524" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C524" t="s">
         <v>25</v>
@@ -11030,7 +11058,7 @@
         <v>376</v>
       </c>
       <c r="B525" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C525" t="s">
         <v>69</v>
@@ -11047,7 +11075,7 @@
         <v>376</v>
       </c>
       <c r="B526" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C526" t="s">
         <v>213</v>
@@ -11064,7 +11092,7 @@
         <v>376</v>
       </c>
       <c r="B527" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C527" t="s">
         <v>25</v>
@@ -11081,7 +11109,7 @@
         <v>376</v>
       </c>
       <c r="B528" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C528" t="s">
         <v>25</v>
@@ -11098,7 +11126,7 @@
         <v>376</v>
       </c>
       <c r="B529" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C529" t="s">
         <v>25</v>
@@ -11115,7 +11143,7 @@
         <v>376</v>
       </c>
       <c r="B530" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C530" t="s">
         <v>25</v>
@@ -11132,7 +11160,7 @@
         <v>376</v>
       </c>
       <c r="B531" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C531" t="s">
         <v>18</v>
@@ -11149,7 +11177,7 @@
         <v>376</v>
       </c>
       <c r="B532" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C532" t="s">
         <v>178</v>
@@ -11166,7 +11194,7 @@
         <v>376</v>
       </c>
       <c r="B533" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C533" t="s">
         <v>161</v>
@@ -11183,7 +11211,7 @@
         <v>376</v>
       </c>
       <c r="B534" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C534" t="s">
         <v>25</v>
@@ -11200,7 +11228,7 @@
         <v>376</v>
       </c>
       <c r="B535" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C535" t="s">
         <v>25</v>
@@ -11209,7 +11237,7 @@
         <v>11</v>
       </c>
       <c r="E535" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -11217,7 +11245,7 @@
         <v>376</v>
       </c>
       <c r="B536" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C536" t="s">
         <v>7</v>
@@ -11226,7 +11254,7 @@
         <v>11</v>
       </c>
       <c r="E536" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -11234,7 +11262,7 @@
         <v>376</v>
       </c>
       <c r="B537" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C537" t="s">
         <v>7</v>
@@ -11243,7 +11271,7 @@
         <v>11</v>
       </c>
       <c r="E537" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11251,7 +11279,7 @@
         <v>376</v>
       </c>
       <c r="B538" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C538" t="s">
         <v>7</v>
@@ -11260,7 +11288,7 @@
         <v>11</v>
       </c>
       <c r="E538" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -11268,7 +11296,7 @@
         <v>376</v>
       </c>
       <c r="B539" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C539" t="s">
         <v>7</v>
@@ -11277,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="E539" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -11285,7 +11313,7 @@
         <v>376</v>
       </c>
       <c r="B540" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C540" t="s">
         <v>7</v>
@@ -11294,7 +11322,7 @@
         <v>11</v>
       </c>
       <c r="E540" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -11302,7 +11330,7 @@
         <v>376</v>
       </c>
       <c r="B541" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C541" t="s">
         <v>7</v>
@@ -11311,7 +11339,7 @@
         <v>11</v>
       </c>
       <c r="E541" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -11319,7 +11347,7 @@
         <v>376</v>
       </c>
       <c r="B542" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C542" t="s">
         <v>7</v>
@@ -11328,7 +11356,7 @@
         <v>11</v>
       </c>
       <c r="E542" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11336,7 +11364,7 @@
         <v>376</v>
       </c>
       <c r="B543" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C543" t="s">
         <v>25</v>
@@ -11353,7 +11381,7 @@
         <v>376</v>
       </c>
       <c r="B544" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C544" t="s">
         <v>25</v>
@@ -11370,7 +11398,7 @@
         <v>376</v>
       </c>
       <c r="B545" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C545" t="s">
         <v>189</v>
@@ -11387,7 +11415,7 @@
         <v>376</v>
       </c>
       <c r="B546" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C546" t="s">
         <v>25</v>
@@ -11404,7 +11432,7 @@
         <v>376</v>
       </c>
       <c r="B547" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C547" t="s">
         <v>25</v>
@@ -11421,7 +11449,7 @@
         <v>376</v>
       </c>
       <c r="B548" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C548" t="s">
         <v>23</v>
@@ -11438,7 +11466,7 @@
         <v>376</v>
       </c>
       <c r="B549" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C549" t="s">
         <v>225</v>
@@ -11455,7 +11483,7 @@
         <v>376</v>
       </c>
       <c r="B550" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C550" t="s">
         <v>23</v>
@@ -11472,7 +11500,7 @@
         <v>376</v>
       </c>
       <c r="B551" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C551" t="s">
         <v>189</v>
@@ -11489,7 +11517,7 @@
         <v>376</v>
       </c>
       <c r="B552" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C552" t="s">
         <v>189</v>
@@ -11506,7 +11534,7 @@
         <v>376</v>
       </c>
       <c r="B553" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C553" t="s">
         <v>25</v>
@@ -11523,7 +11551,7 @@
         <v>376</v>
       </c>
       <c r="B554" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C554" t="s">
         <v>189</v>
@@ -11540,7 +11568,7 @@
         <v>376</v>
       </c>
       <c r="B555" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C555" t="s">
         <v>23</v>
@@ -11557,7 +11585,7 @@
         <v>376</v>
       </c>
       <c r="B556" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C556" t="s">
         <v>225</v>
@@ -11574,7 +11602,7 @@
         <v>376</v>
       </c>
       <c r="B557" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C557" t="s">
         <v>7</v>
@@ -11583,7 +11611,7 @@
         <v>16</v>
       </c>
       <c r="E557" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11591,7 +11619,7 @@
         <v>376</v>
       </c>
       <c r="B558" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C558" t="s">
         <v>7</v>
@@ -11600,7 +11628,7 @@
         <v>16</v>
       </c>
       <c r="E558" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11608,7 +11636,7 @@
         <v>376</v>
       </c>
       <c r="B559" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C559" t="s">
         <v>7</v>
@@ -11617,7 +11645,7 @@
         <v>16</v>
       </c>
       <c r="E559" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11625,7 +11653,7 @@
         <v>376</v>
       </c>
       <c r="B560" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C560" t="s">
         <v>7</v>
@@ -11634,7 +11662,7 @@
         <v>16</v>
       </c>
       <c r="E560" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -11642,7 +11670,7 @@
         <v>376</v>
       </c>
       <c r="B561" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C561" t="s">
         <v>7</v>
@@ -11651,7 +11679,7 @@
         <v>16</v>
       </c>
       <c r="E561" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11659,7 +11687,7 @@
         <v>376</v>
       </c>
       <c r="B562" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C562" t="s">
         <v>7</v>
@@ -11668,7 +11696,7 @@
         <v>16</v>
       </c>
       <c r="E562" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -11676,7 +11704,7 @@
         <v>376</v>
       </c>
       <c r="B563" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C563" t="s">
         <v>7</v>
@@ -11685,7 +11713,7 @@
         <v>16</v>
       </c>
       <c r="E563" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -11693,7 +11721,7 @@
         <v>376</v>
       </c>
       <c r="B564" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C564" t="s">
         <v>7</v>
@@ -11702,7 +11730,7 @@
         <v>16</v>
       </c>
       <c r="E564" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11710,7 +11738,7 @@
         <v>376</v>
       </c>
       <c r="B565" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C565" t="s">
         <v>187</v>
@@ -11727,7 +11755,7 @@
         <v>376</v>
       </c>
       <c r="B566" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -11744,7 +11772,7 @@
         <v>376</v>
       </c>
       <c r="B567" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C567" t="s">
         <v>236</v>
@@ -11761,7 +11789,7 @@
         <v>376</v>
       </c>
       <c r="B568" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C568" t="s">
         <v>28</v>
@@ -11778,7 +11806,7 @@
         <v>376</v>
       </c>
       <c r="B569" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C569" t="s">
         <v>25</v>
@@ -11795,7 +11823,7 @@
         <v>376</v>
       </c>
       <c r="B570" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C570" t="s">
         <v>189</v>
@@ -11812,7 +11840,7 @@
         <v>376</v>
       </c>
       <c r="B571" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C571" t="s">
         <v>23</v>
@@ -11829,7 +11857,7 @@
         <v>376</v>
       </c>
       <c r="B572" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C572" t="s">
         <v>225</v>
@@ -11846,7 +11874,7 @@
         <v>376</v>
       </c>
       <c r="B573" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C573" t="s">
         <v>187</v>
@@ -11863,7 +11891,7 @@
         <v>376</v>
       </c>
       <c r="B574" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -11880,7 +11908,7 @@
         <v>376</v>
       </c>
       <c r="B575" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C575" t="s">
         <v>236</v>
@@ -11897,7 +11925,7 @@
         <v>376</v>
       </c>
       <c r="B576" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C576" t="s">
         <v>25</v>
@@ -11914,7 +11942,7 @@
         <v>376</v>
       </c>
       <c r="B577" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C577" t="s">
         <v>189</v>
@@ -11931,7 +11959,7 @@
         <v>376</v>
       </c>
       <c r="B578" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C578" t="s">
         <v>23</v>
@@ -11948,7 +11976,7 @@
         <v>376</v>
       </c>
       <c r="B579" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C579" t="s">
         <v>225</v>
@@ -11965,7 +11993,7 @@
         <v>376</v>
       </c>
       <c r="B580" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C580" t="s">
         <v>187</v>
@@ -11982,7 +12010,7 @@
         <v>376</v>
       </c>
       <c r="B581" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -11999,7 +12027,7 @@
         <v>376</v>
       </c>
       <c r="B582" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C582" t="s">
         <v>236</v>
@@ -12016,7 +12044,7 @@
         <v>376</v>
       </c>
       <c r="B583" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C583" t="s">
         <v>187</v>
@@ -12033,7 +12061,7 @@
         <v>376</v>
       </c>
       <c r="B584" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C584" t="s">
         <v>30</v>
@@ -12050,7 +12078,7 @@
         <v>376</v>
       </c>
       <c r="B585" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C585" t="s">
         <v>30</v>
@@ -12067,7 +12095,7 @@
         <v>376</v>
       </c>
       <c r="B586" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C586" t="s">
         <v>30</v>
@@ -12084,7 +12112,7 @@
         <v>376</v>
       </c>
       <c r="B587" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C587" t="s">
         <v>30</v>
@@ -12101,7 +12129,7 @@
         <v>376</v>
       </c>
       <c r="B588" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C588" t="s">
         <v>30</v>
@@ -12118,7 +12146,7 @@
         <v>376</v>
       </c>
       <c r="B589" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C589" t="s">
         <v>30</v>
@@ -12135,7 +12163,7 @@
         <v>376</v>
       </c>
       <c r="B590" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C590" t="s">
         <v>187</v>
@@ -12152,10 +12180,10 @@
         <v>376</v>
       </c>
       <c r="B591" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C591" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D591">
         <v>18</v>
@@ -12169,7 +12197,7 @@
         <v>376</v>
       </c>
       <c r="B592" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -12186,10 +12214,10 @@
         <v>376</v>
       </c>
       <c r="B593" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C593" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D593">
         <v>18</v>
@@ -12203,7 +12231,7 @@
         <v>376</v>
       </c>
       <c r="B594" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -12220,10 +12248,10 @@
         <v>376</v>
       </c>
       <c r="B595" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C595" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D595">
         <v>18</v>
@@ -12237,7 +12265,7 @@
         <v>376</v>
       </c>
       <c r="B596" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -12254,7 +12282,7 @@
         <v>376</v>
       </c>
       <c r="B597" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -12271,10 +12299,10 @@
         <v>376</v>
       </c>
       <c r="B598" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C598" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D598">
         <v>18</v>
@@ -12288,7 +12316,7 @@
         <v>376</v>
       </c>
       <c r="B599" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -12305,10 +12333,10 @@
         <v>376</v>
       </c>
       <c r="B600" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C600" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D600">
         <v>18</v>
@@ -12322,7 +12350,7 @@
         <v>376</v>
       </c>
       <c r="B601" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C601" t="s">
         <v>28</v>
@@ -12339,10 +12367,10 @@
         <v>376</v>
       </c>
       <c r="B602" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C602" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D602">
         <v>18</v>
@@ -12356,7 +12384,7 @@
         <v>376</v>
       </c>
       <c r="B603" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -12373,10 +12401,10 @@
         <v>376</v>
       </c>
       <c r="B604" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C604" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D604">
         <v>18</v>
@@ -12390,7 +12418,7 @@
         <v>376</v>
       </c>
       <c r="B605" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -12407,10 +12435,10 @@
         <v>376</v>
       </c>
       <c r="B606" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C606" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D606">
         <v>18</v>
@@ -12424,7 +12452,7 @@
         <v>376</v>
       </c>
       <c r="B607" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -12441,10 +12469,10 @@
         <v>376</v>
       </c>
       <c r="B608" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C608" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D608">
         <v>18</v>
@@ -12458,7 +12486,7 @@
         <v>376</v>
       </c>
       <c r="B609" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -12475,7 +12503,7 @@
         <v>376</v>
       </c>
       <c r="B610" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -12492,10 +12520,10 @@
         <v>376</v>
       </c>
       <c r="B611" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C611" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D611">
         <v>18</v>
@@ -12509,7 +12537,7 @@
         <v>376</v>
       </c>
       <c r="B612" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -12526,7 +12554,7 @@
         <v>376</v>
       </c>
       <c r="B613" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -12543,10 +12571,10 @@
         <v>376</v>
       </c>
       <c r="B614" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C614" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D614">
         <v>18</v>
@@ -12560,7 +12588,7 @@
         <v>376</v>
       </c>
       <c r="B615" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -12577,10 +12605,10 @@
         <v>376</v>
       </c>
       <c r="B616" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C616" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D616">
         <v>18</v>
@@ -12594,10 +12622,10 @@
         <v>376</v>
       </c>
       <c r="B617" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C617" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D617">
         <v>18</v>
@@ -12611,7 +12639,7 @@
         <v>376</v>
       </c>
       <c r="B618" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -12628,7 +12656,7 @@
         <v>376</v>
       </c>
       <c r="B619" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -12645,10 +12673,10 @@
         <v>376</v>
       </c>
       <c r="B620" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C620" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D620">
         <v>18</v>
@@ -12662,10 +12690,10 @@
         <v>376</v>
       </c>
       <c r="B621" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C621" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D621">
         <v>18</v>
@@ -12679,7 +12707,7 @@
         <v>376</v>
       </c>
       <c r="B622" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -12696,10 +12724,10 @@
         <v>376</v>
       </c>
       <c r="B623" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C623" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D623">
         <v>18</v>
@@ -12713,7 +12741,7 @@
         <v>376</v>
       </c>
       <c r="B624" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -12730,10 +12758,10 @@
         <v>376</v>
       </c>
       <c r="B625" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C625" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D625">
         <v>18</v>
@@ -12747,10 +12775,10 @@
         <v>376</v>
       </c>
       <c r="B626" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C626" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D626">
         <v>18</v>
@@ -12764,7 +12792,7 @@
         <v>376</v>
       </c>
       <c r="B627" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -12781,7 +12809,7 @@
         <v>376</v>
       </c>
       <c r="B628" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -12798,10 +12826,10 @@
         <v>376</v>
       </c>
       <c r="B629" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C629" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D629">
         <v>18</v>
@@ -12815,7 +12843,7 @@
         <v>376</v>
       </c>
       <c r="B630" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -12832,10 +12860,10 @@
         <v>376</v>
       </c>
       <c r="B631" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C631" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D631">
         <v>18</v>
@@ -12849,10 +12877,10 @@
         <v>376</v>
       </c>
       <c r="B632" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C632" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D632">
         <v>18</v>
@@ -12866,7 +12894,7 @@
         <v>376</v>
       </c>
       <c r="B633" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -12883,10 +12911,10 @@
         <v>376</v>
       </c>
       <c r="B634" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C634" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D634">
         <v>18</v>
@@ -12900,10 +12928,10 @@
         <v>376</v>
       </c>
       <c r="B635" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C635" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D635">
         <v>18</v>
@@ -12917,10 +12945,10 @@
         <v>376</v>
       </c>
       <c r="B636" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C636" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D636">
         <v>18</v>
@@ -12934,10 +12962,10 @@
         <v>376</v>
       </c>
       <c r="B637" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C637" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D637">
         <v>18</v>
@@ -12951,7 +12979,7 @@
         <v>376</v>
       </c>
       <c r="B638" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C638" t="s">
         <v>167</v>
@@ -12968,7 +12996,7 @@
         <v>376</v>
       </c>
       <c r="B639" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C639" t="s">
         <v>7</v>
@@ -12977,7 +13005,7 @@
         <v>18</v>
       </c>
       <c r="E639" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -12985,7 +13013,7 @@
         <v>376</v>
       </c>
       <c r="B640" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C640" t="s">
         <v>7</v>
@@ -12994,7 +13022,7 @@
         <v>18</v>
       </c>
       <c r="E640" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -13002,7 +13030,7 @@
         <v>376</v>
       </c>
       <c r="B641" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C641" t="s">
         <v>7</v>
@@ -13011,7 +13039,7 @@
         <v>18</v>
       </c>
       <c r="E641" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -13019,7 +13047,7 @@
         <v>376</v>
       </c>
       <c r="B642" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C642" t="s">
         <v>7</v>
@@ -13028,7 +13056,7 @@
         <v>18</v>
       </c>
       <c r="E642" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -13036,7 +13064,7 @@
         <v>376</v>
       </c>
       <c r="B643" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C643" t="s">
         <v>7</v>
@@ -13045,10 +13073,10 @@
         <v>18</v>
       </c>
       <c r="E643" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F643" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -13056,7 +13084,7 @@
         <v>376</v>
       </c>
       <c r="B644" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C644" t="s">
         <v>7</v>
@@ -13065,7 +13093,7 @@
         <v>18</v>
       </c>
       <c r="E644" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -13073,7 +13101,7 @@
         <v>376</v>
       </c>
       <c r="B645" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C645" t="s">
         <v>7</v>
@@ -13082,7 +13110,7 @@
         <v>18</v>
       </c>
       <c r="E645" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -13090,7 +13118,7 @@
         <v>376</v>
       </c>
       <c r="B646" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C646" t="s">
         <v>7</v>
@@ -13099,7 +13127,7 @@
         <v>18</v>
       </c>
       <c r="E646" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -13107,7 +13135,7 @@
         <v>376</v>
       </c>
       <c r="B647" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C647" t="s">
         <v>7</v>
@@ -13116,7 +13144,7 @@
         <v>18</v>
       </c>
       <c r="E647" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -13124,7 +13152,7 @@
         <v>376</v>
       </c>
       <c r="B648" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C648" t="s">
         <v>21</v>
@@ -13141,7 +13169,7 @@
         <v>376</v>
       </c>
       <c r="B649" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C649" t="s">
         <v>228</v>
@@ -13158,7 +13186,7 @@
         <v>376</v>
       </c>
       <c r="B650" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C650" t="s">
         <v>201</v>
@@ -13175,7 +13203,7 @@
         <v>376</v>
       </c>
       <c r="B651" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C651" t="s">
         <v>203</v>
@@ -13192,7 +13220,7 @@
         <v>376</v>
       </c>
       <c r="B652" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C652" t="s">
         <v>178</v>
@@ -13209,7 +13237,7 @@
         <v>376</v>
       </c>
       <c r="B653" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C653" t="s">
         <v>18</v>
@@ -13226,7 +13254,7 @@
         <v>376</v>
       </c>
       <c r="B654" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C654" t="s">
         <v>219</v>
@@ -13243,7 +13271,7 @@
         <v>376</v>
       </c>
       <c r="B655" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C655" t="s">
         <v>221</v>
@@ -13260,7 +13288,7 @@
         <v>376</v>
       </c>
       <c r="B656" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C656" t="s">
         <v>63</v>
@@ -13277,7 +13305,7 @@
         <v>376</v>
       </c>
       <c r="B657" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C657" t="s">
         <v>63</v>
@@ -13294,7 +13322,7 @@
         <v>376</v>
       </c>
       <c r="B658" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C658" t="s">
         <v>63</v>
@@ -13311,7 +13339,7 @@
         <v>376</v>
       </c>
       <c r="B659" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C659" t="s">
         <v>63</v>
@@ -13328,7 +13356,7 @@
         <v>376</v>
       </c>
       <c r="B660" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C660" t="s">
         <v>217</v>
@@ -13345,7 +13373,7 @@
         <v>376</v>
       </c>
       <c r="B661" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C661" t="s">
         <v>63</v>
@@ -13362,7 +13390,7 @@
         <v>376</v>
       </c>
       <c r="B662" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C662" t="s">
         <v>217</v>
@@ -13379,7 +13407,7 @@
         <v>376</v>
       </c>
       <c r="B663" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C663" t="s">
         <v>6</v>
@@ -13396,7 +13424,7 @@
         <v>376</v>
       </c>
       <c r="B664" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C664" t="s">
         <v>210</v>
@@ -13413,7 +13441,7 @@
         <v>376</v>
       </c>
       <c r="B665" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C665" t="s">
         <v>373</v>
@@ -13430,7 +13458,7 @@
         <v>376</v>
       </c>
       <c r="B666" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C666" t="s">
         <v>373</v>
@@ -13447,7 +13475,7 @@
         <v>376</v>
       </c>
       <c r="B667" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C667" t="s">
         <v>373</v>
@@ -13464,7 +13492,7 @@
         <v>376</v>
       </c>
       <c r="B668" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C668" t="s">
         <v>373</v>
@@ -13481,7 +13509,7 @@
         <v>376</v>
       </c>
       <c r="B669" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C669" t="s">
         <v>189</v>
@@ -13498,7 +13526,7 @@
         <v>376</v>
       </c>
       <c r="B670" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C670" t="s">
         <v>18</v>
@@ -13515,7 +13543,7 @@
         <v>376</v>
       </c>
       <c r="B671" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C671" t="s">
         <v>178</v>
@@ -13532,7 +13560,7 @@
         <v>376</v>
       </c>
       <c r="B672" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C672" t="s">
         <v>161</v>
@@ -13549,7 +13577,7 @@
         <v>376</v>
       </c>
       <c r="B673" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C673" t="s">
         <v>178</v>
@@ -13566,7 +13594,7 @@
         <v>376</v>
       </c>
       <c r="B674" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C674" t="s">
         <v>21</v>
@@ -13583,7 +13611,7 @@
         <v>376</v>
       </c>
       <c r="B675" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C675" t="s">
         <v>135</v>
@@ -13600,7 +13628,7 @@
         <v>376</v>
       </c>
       <c r="B676" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C676" t="s">
         <v>178</v>
@@ -13617,7 +13645,7 @@
         <v>376</v>
       </c>
       <c r="B677" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C677" t="s">
         <v>18</v>
@@ -13634,7 +13662,7 @@
         <v>376</v>
       </c>
       <c r="B678" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C678" t="s">
         <v>161</v>
@@ -13651,7 +13679,7 @@
         <v>376</v>
       </c>
       <c r="B679" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C679" t="s">
         <v>21</v>
@@ -13668,7 +13696,7 @@
         <v>376</v>
       </c>
       <c r="B680" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C680" t="s">
         <v>21</v>
@@ -13685,7 +13713,7 @@
         <v>376</v>
       </c>
       <c r="B681" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C681" t="s">
         <v>228</v>
@@ -13702,7 +13730,7 @@
         <v>376</v>
       </c>
       <c r="B682" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C682" t="s">
         <v>183</v>
@@ -13719,7 +13747,7 @@
         <v>376</v>
       </c>
       <c r="B683" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C683" t="s">
         <v>165</v>
@@ -13736,7 +13764,7 @@
         <v>376</v>
       </c>
       <c r="B684" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C684" t="s">
         <v>165</v>
@@ -13753,7 +13781,7 @@
         <v>376</v>
       </c>
       <c r="B685" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C685" t="s">
         <v>25</v>
@@ -13770,7 +13798,7 @@
         <v>376</v>
       </c>
       <c r="B686" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C686" t="s">
         <v>69</v>
@@ -13787,7 +13815,7 @@
         <v>376</v>
       </c>
       <c r="B687" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C687" t="s">
         <v>69</v>
@@ -13804,7 +13832,7 @@
         <v>376</v>
       </c>
       <c r="B688" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C688" t="s">
         <v>69</v>
@@ -13821,7 +13849,7 @@
         <v>376</v>
       </c>
       <c r="B689" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C689" t="s">
         <v>189</v>
@@ -13838,7 +13866,7 @@
         <v>376</v>
       </c>
       <c r="B690" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C690" t="s">
         <v>187</v>
@@ -13855,7 +13883,7 @@
         <v>376</v>
       </c>
       <c r="B691" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C691" t="s">
         <v>201</v>
@@ -13872,7 +13900,7 @@
         <v>376</v>
       </c>
       <c r="B692" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C692" t="s">
         <v>135</v>
